--- a/Excel/Color_by_Number_Fun.xlsx
+++ b/Excel/Color_by_Number_Fun.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madisonangus/Desktop/Color by number/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevReady\Workshops\Microsoft Office\Courses\Excel\Microsoft Excel training\Data Analysis and Visualization\Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70E49626-49C8-A545-AB44-30B755D69E7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FEE2C1-03F4-47DA-A358-2C848CE6D819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{02951CBA-AC22-8C47-BDBF-C06567FA3CEE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{02951CBA-AC22-8C47-BDBF-C06567FA3CEE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bees and flowers" sheetId="1" r:id="rId1"/>
+    <sheet name="Smile" sheetId="2" r:id="rId1"/>
+    <sheet name="Bees and flowers" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="Smile1">Smile!$C$14,Smile!$D$15,Smile!$E$16,Smile!$F$15,Smile!$G$14,Smile!$D$8:$D$10,Smile!$F$8:$F$10,Smile!$G$13,Smile!$C$13,Smile!$B$6,Smile!$C$5,Smile!$D$4,Smile!$F$4,Smile!$E$4,Smile!$G$5,Smile!$H$6,Smile!$A$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -285,7 +280,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -594,20 +604,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15493B8-9143-492C-8E55-44A826F41BD7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCellId="16" sqref="C14 D15 E16 F15 G14 D8:D10 F8:F10 G13 C13 B6 C5 D4 F4 E4 G5 H6 A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6081772-667C-1A40-9DCF-6175A7284B86}">
   <dimension ref="D3:AN22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="182" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="182" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:40" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="4:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="4:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="4:40" x14ac:dyDescent="0.3">
       <c r="D4" s="2"/>
       <c r="E4" s="3">
         <v>1</v>
@@ -712,7 +736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="4:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="4:40" x14ac:dyDescent="0.3">
       <c r="D5" s="7"/>
       <c r="E5" s="3">
         <v>2</v>
@@ -817,7 +841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="4:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:40" x14ac:dyDescent="0.3">
       <c r="D6" s="10"/>
       <c r="E6" s="3">
         <v>3</v>
@@ -922,7 +946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="4:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:40" x14ac:dyDescent="0.3">
       <c r="D7" s="11"/>
       <c r="E7" s="3">
         <v>4</v>
@@ -1027,7 +1051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="4:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:40" x14ac:dyDescent="0.3">
       <c r="D8" s="12"/>
       <c r="E8" s="3">
         <v>5</v>
@@ -1132,7 +1156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="4:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:40" x14ac:dyDescent="0.3">
       <c r="D9" s="13"/>
       <c r="E9" s="3">
         <v>6</v>
@@ -1237,7 +1261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="4:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:40" x14ac:dyDescent="0.3">
       <c r="D10" s="14"/>
       <c r="E10" s="3">
         <v>7</v>
@@ -1342,7 +1366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="4:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:40" x14ac:dyDescent="0.3">
       <c r="D11" s="15"/>
       <c r="E11" s="3">
         <v>8</v>
@@ -1447,7 +1471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="4:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:40" x14ac:dyDescent="0.3">
       <c r="D12" s="16"/>
       <c r="E12" s="3">
         <v>9</v>
@@ -1552,7 +1576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="4:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:40" x14ac:dyDescent="0.3">
       <c r="D13" s="17"/>
       <c r="E13" s="3">
         <v>10</v>
@@ -1657,7 +1681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="4:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:40" x14ac:dyDescent="0.3">
       <c r="H14" s="8">
         <v>7</v>
       </c>
@@ -1758,7 +1782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="4:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:40" x14ac:dyDescent="0.3">
       <c r="H15" s="8">
         <v>7</v>
       </c>
@@ -1859,7 +1883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="4:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:40" x14ac:dyDescent="0.3">
       <c r="H16" s="8">
         <v>7</v>
       </c>
@@ -1960,7 +1984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="8:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="8:40" x14ac:dyDescent="0.3">
       <c r="H17" s="8">
         <v>7</v>
       </c>
@@ -2061,7 +2085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="8:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="8:40" x14ac:dyDescent="0.3">
       <c r="H18" s="8">
         <v>7</v>
       </c>
@@ -2162,7 +2186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="8:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="8:40" x14ac:dyDescent="0.3">
       <c r="H19" s="8">
         <v>8</v>
       </c>
@@ -2263,7 +2287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="8:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="8:40" x14ac:dyDescent="0.3">
       <c r="H20" s="8">
         <v>8</v>
       </c>
@@ -2364,7 +2388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="8:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="8:40" x14ac:dyDescent="0.3">
       <c r="H21" s="8">
         <v>8</v>
       </c>
@@ -2465,7 +2489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="8:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H22" s="18">
         <v>8</v>
       </c>
@@ -2567,6 +2591,12 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H4:AN22">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$H$4 =2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>